--- a/team_specific_matrix/Grand Canyon_A.xlsx
+++ b/team_specific_matrix/Grand Canyon_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1870748299319728</v>
+        <v>0.1825613079019074</v>
       </c>
       <c r="C2">
-        <v>0.5714285714285714</v>
+        <v>0.5858310626702997</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02040816326530612</v>
+        <v>0.02452316076294278</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1598639455782313</v>
+        <v>0.1471389645776567</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06122448979591837</v>
+        <v>0.05994550408719346</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="C3">
-        <v>0.03529411764705882</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06470588235294118</v>
+        <v>0.06880733944954129</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7588235294117647</v>
+        <v>0.7522935779816514</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1411764705882353</v>
+        <v>0.1467889908256881</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08823529411764706</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6764705882352942</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2352941176470588</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08074534161490683</v>
+        <v>0.07179487179487179</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01863354037267081</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="F6">
-        <v>0.03726708074534162</v>
+        <v>0.04102564102564103</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2670807453416149</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.006211180124223602</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1925465838509317</v>
+        <v>0.1948717948717949</v>
       </c>
       <c r="R6">
-        <v>0.04347826086956522</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="S6">
-        <v>0.3540372670807453</v>
+        <v>0.3487179487179487</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1398601398601399</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02097902097902098</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="E7">
-        <v>0.006993006993006993</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="F7">
-        <v>0.07692307692307693</v>
+        <v>0.06857142857142857</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1538461538461539</v>
+        <v>0.16</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02097902097902098</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1538461538461539</v>
+        <v>0.1485714285714286</v>
       </c>
       <c r="R7">
-        <v>0.06993006993006994</v>
+        <v>0.06857142857142857</v>
       </c>
       <c r="S7">
-        <v>0.3566433566433567</v>
+        <v>0.3714285714285714</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1096774193548387</v>
+        <v>0.1182519280205656</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01935483870967742</v>
+        <v>0.01542416452442159</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05161290322580645</v>
+        <v>0.05912596401028278</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1290322580645161</v>
+        <v>0.1388174807197944</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02258064516129032</v>
+        <v>0.01799485861182519</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1419354838709677</v>
+        <v>0.141388174807198</v>
       </c>
       <c r="R8">
-        <v>0.09677419354838709</v>
+        <v>0.08483290488431877</v>
       </c>
       <c r="S8">
-        <v>0.4290322580645161</v>
+        <v>0.4241645244215938</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1217391304347826</v>
+        <v>0.1292517006802721</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01739130434782609</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06956521739130435</v>
+        <v>0.05442176870748299</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1565217391304348</v>
+        <v>0.1496598639455782</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01739130434782609</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1652173913043478</v>
+        <v>0.1564625850340136</v>
       </c>
       <c r="R9">
-        <v>0.1043478260869565</v>
+        <v>0.1156462585034014</v>
       </c>
       <c r="S9">
-        <v>0.3478260869565217</v>
+        <v>0.3537414965986395</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1468871595330739</v>
+        <v>0.1462848297213622</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02042801556420233</v>
+        <v>0.021671826625387</v>
       </c>
       <c r="E10">
-        <v>0.002918287937743191</v>
+        <v>0.002321981424148607</v>
       </c>
       <c r="F10">
-        <v>0.06906614785992218</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1215953307392996</v>
+        <v>0.1191950464396285</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01459143968871595</v>
+        <v>0.01780185758513932</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2227626459143969</v>
+        <v>0.2260061919504644</v>
       </c>
       <c r="R10">
-        <v>0.07587548638132295</v>
+        <v>0.07739938080495357</v>
       </c>
       <c r="S10">
-        <v>0.325875486381323</v>
+        <v>0.3235294117647059</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1287553648068669</v>
+        <v>0.1314878892733564</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.111587982832618</v>
+        <v>0.1141868512110727</v>
       </c>
       <c r="K11">
-        <v>0.184549356223176</v>
+        <v>0.1868512110726644</v>
       </c>
       <c r="L11">
-        <v>0.5579399141630901</v>
+        <v>0.5536332179930796</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01716738197424893</v>
+        <v>0.01384083044982699</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6934306569343066</v>
+        <v>0.688622754491018</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1970802919708029</v>
+        <v>0.2095808383233533</v>
       </c>
       <c r="K12">
-        <v>0.05109489051094891</v>
+        <v>0.04191616766467066</v>
       </c>
       <c r="L12">
-        <v>0.0291970802919708</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0291970802919708</v>
+        <v>0.03592814371257485</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6451612903225806</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3225806451612903</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03225806451612903</v>
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01818181818181818</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1515151515151515</v>
+        <v>0.1549295774647887</v>
       </c>
       <c r="I15">
-        <v>0.05454545454545454</v>
+        <v>0.05164319248826291</v>
       </c>
       <c r="J15">
-        <v>0.4121212121212121</v>
+        <v>0.3990610328638498</v>
       </c>
       <c r="K15">
-        <v>0.04848484848484848</v>
+        <v>0.04694835680751173</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01212121212121212</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08484848484848485</v>
+        <v>0.07511737089201878</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2181818181818182</v>
+        <v>0.2394366197183098</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005181347150259068</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1709844559585492</v>
+        <v>0.175</v>
       </c>
       <c r="I16">
-        <v>0.07253886010362694</v>
+        <v>0.075</v>
       </c>
       <c r="J16">
-        <v>0.4352331606217616</v>
+        <v>0.4458333333333334</v>
       </c>
       <c r="K16">
-        <v>0.09326424870466321</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005181347150259068</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06735751295336788</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.150259067357513</v>
+        <v>0.1375</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.005917159763313609</v>
+        <v>0.00702576112412178</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1745562130177515</v>
+        <v>0.1826697892271663</v>
       </c>
       <c r="I17">
-        <v>0.05917159763313609</v>
+        <v>0.06791569086651054</v>
       </c>
       <c r="J17">
-        <v>0.4230769230769231</v>
+        <v>0.4332552693208431</v>
       </c>
       <c r="K17">
-        <v>0.1331360946745562</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02071005917159763</v>
+        <v>0.01873536299765808</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08284023668639054</v>
+        <v>0.07728337236533958</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1005917159763314</v>
+        <v>0.09836065573770492</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.007407407407407408</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1777777777777778</v>
+        <v>0.2</v>
       </c>
       <c r="I18">
-        <v>0.05925925925925926</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="J18">
-        <v>0.4444444444444444</v>
+        <v>0.4235294117647059</v>
       </c>
       <c r="K18">
-        <v>0.1333333333333333</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.007407407407407408</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06666666666666667</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1037037037037037</v>
+        <v>0.1117647058823529</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02013422818791946</v>
+        <v>0.01880035810205909</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1901565995525727</v>
+        <v>0.1817367949865712</v>
       </c>
       <c r="I19">
-        <v>0.0738255033557047</v>
+        <v>0.07162041181736795</v>
       </c>
       <c r="J19">
-        <v>0.3914988814317674</v>
+        <v>0.3903312444046553</v>
       </c>
       <c r="K19">
-        <v>0.1017897091722595</v>
+        <v>0.1119068934646374</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02237136465324385</v>
+        <v>0.02148612354521039</v>
       </c>
       <c r="N19">
-        <v>0.002237136465324385</v>
+        <v>0.002685765443151298</v>
       </c>
       <c r="O19">
-        <v>0.06487695749440715</v>
+        <v>0.07162041181736795</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1331096196868009</v>
+        <v>0.1298119964189794</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Grand Canyon_A.xlsx
+++ b/team_specific_matrix/Grand Canyon_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1825613079019074</v>
+        <v>0.1746835443037975</v>
       </c>
       <c r="C2">
-        <v>0.5858310626702997</v>
+        <v>0.6025316455696202</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02452316076294278</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1471389645776567</v>
+        <v>0.1417721518987342</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.05994550408719346</v>
+        <v>0.05569620253164557</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004587155963302753</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="C3">
-        <v>0.02752293577981652</v>
+        <v>0.025</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06880733944954129</v>
+        <v>0.07083333333333333</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7522935779816514</v>
+        <v>0.7625</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1467889908256881</v>
+        <v>0.1375</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06818181818181818</v>
+        <v>0.0625</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6818181818181818</v>
+        <v>0.6875</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07179487179487179</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01538461538461539</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E6">
-        <v>0.005128205128205128</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="F6">
-        <v>0.04102564102564103</v>
+        <v>0.0365296803652968</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2666666666666667</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.005128205128205128</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1948717948717949</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="R6">
-        <v>0.05128205128205128</v>
+        <v>0.045662100456621</v>
       </c>
       <c r="S6">
-        <v>0.3487179487179487</v>
+        <v>0.3561643835616438</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1314285714285714</v>
+        <v>0.1293532338308458</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02857142857142857</v>
+        <v>0.02487562189054726</v>
       </c>
       <c r="E7">
-        <v>0.005714285714285714</v>
+        <v>0.004975124378109453</v>
       </c>
       <c r="F7">
-        <v>0.06857142857142857</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.16</v>
+        <v>0.1442786069651741</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01714285714285714</v>
+        <v>0.02487562189054726</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1485714285714286</v>
+        <v>0.154228855721393</v>
       </c>
       <c r="R7">
-        <v>0.06857142857142857</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="S7">
-        <v>0.3714285714285714</v>
+        <v>0.3830845771144278</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1182519280205656</v>
+        <v>0.1202830188679245</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01542416452442159</v>
+        <v>0.01650943396226415</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05912596401028278</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1388174807197944</v>
+        <v>0.1391509433962264</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01799485861182519</v>
+        <v>0.01650943396226415</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.141388174807198</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="R8">
-        <v>0.08483290488431877</v>
+        <v>0.08490566037735849</v>
       </c>
       <c r="S8">
-        <v>0.4241645244215938</v>
+        <v>0.4150943396226415</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1292517006802721</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02040816326530612</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05442176870748299</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1496598639455782</v>
+        <v>0.1419753086419753</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02040816326530612</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1564625850340136</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R9">
-        <v>0.1156462585034014</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="S9">
-        <v>0.3537414965986395</v>
+        <v>0.3580246913580247</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1462848297213622</v>
+        <v>0.1430575035063114</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.021671826625387</v>
+        <v>0.02103786816269285</v>
       </c>
       <c r="E10">
-        <v>0.002321981424148607</v>
+        <v>0.002103786816269285</v>
       </c>
       <c r="F10">
-        <v>0.06578947368421052</v>
+        <v>0.06661991584852735</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1191950464396285</v>
+        <v>0.1164095371669004</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01780185758513932</v>
+        <v>0.01683029453015428</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2260061919504644</v>
+        <v>0.2279102384291725</v>
       </c>
       <c r="R10">
-        <v>0.07739938080495357</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="S10">
-        <v>0.3235294117647059</v>
+        <v>0.3253856942496494</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1314878892733564</v>
+        <v>0.1310975609756098</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1141868512110727</v>
+        <v>0.1097560975609756</v>
       </c>
       <c r="K11">
-        <v>0.1868512110726644</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="L11">
-        <v>0.5536332179930796</v>
+        <v>0.551829268292683</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01384083044982699</v>
+        <v>0.01829268292682927</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.688622754491018</v>
+        <v>0.7005347593582888</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2095808383233533</v>
+        <v>0.2085561497326203</v>
       </c>
       <c r="K12">
-        <v>0.04191616766467066</v>
+        <v>0.0374331550802139</v>
       </c>
       <c r="L12">
-        <v>0.02395209580838323</v>
+        <v>0.0213903743315508</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03592814371257485</v>
+        <v>0.03208556149732621</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.631578947368421</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3421052631578947</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02631578947368421</v>
+        <v>0.02325581395348837</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02347417840375587</v>
+        <v>0.02109704641350211</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1549295774647887</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="I15">
-        <v>0.05164319248826291</v>
+        <v>0.05485232067510549</v>
       </c>
       <c r="J15">
-        <v>0.3990610328638498</v>
+        <v>0.3924050632911392</v>
       </c>
       <c r="K15">
-        <v>0.04694835680751173</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009389671361502348</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07511737089201878</v>
+        <v>0.07172995780590717</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2394366197183098</v>
+        <v>0.2489451476793249</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.008333333333333333</v>
+        <v>0.01520912547528517</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.175</v>
+        <v>0.1749049429657795</v>
       </c>
       <c r="I16">
-        <v>0.075</v>
+        <v>0.07224334600760456</v>
       </c>
       <c r="J16">
-        <v>0.4458333333333334</v>
+        <v>0.4524714828897338</v>
       </c>
       <c r="K16">
-        <v>0.09166666666666666</v>
+        <v>0.08365019011406843</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.008333333333333333</v>
+        <v>0.007604562737642586</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05833333333333333</v>
+        <v>0.05703422053231939</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1375</v>
+        <v>0.1368821292775665</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.00702576112412178</v>
+        <v>0.010351966873706</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1826697892271663</v>
+        <v>0.1801242236024845</v>
       </c>
       <c r="I17">
-        <v>0.06791569086651054</v>
+        <v>0.07039337474120083</v>
       </c>
       <c r="J17">
-        <v>0.4332552693208431</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K17">
-        <v>0.1147540983606557</v>
+        <v>0.1118012422360248</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01873536299765808</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07728337236533958</v>
+        <v>0.08281573498964803</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09836065573770492</v>
+        <v>0.09730848861283643</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005882352941176471</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2</v>
+        <v>0.1957671957671958</v>
       </c>
       <c r="I18">
-        <v>0.07058823529411765</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="J18">
-        <v>0.4235294117647059</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K18">
-        <v>0.1058823529411765</v>
+        <v>0.1058201058201058</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01176470588235294</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07058823529411765</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1117647058823529</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01880035810205909</v>
+        <v>0.01856335754640839</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1817367949865712</v>
+        <v>0.1767554479418886</v>
       </c>
       <c r="I19">
-        <v>0.07162041181736795</v>
+        <v>0.07102502017756256</v>
       </c>
       <c r="J19">
-        <v>0.3903312444046553</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="K19">
-        <v>0.1119068934646374</v>
+        <v>0.1178369652945924</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02148612354521039</v>
+        <v>0.02179176755447942</v>
       </c>
       <c r="N19">
-        <v>0.002685765443151298</v>
+        <v>0.002421307506053269</v>
       </c>
       <c r="O19">
-        <v>0.07162041181736795</v>
+        <v>0.06941081517352704</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1298119964189794</v>
+        <v>0.132364810330912</v>
       </c>
     </row>
   </sheetData>
